--- a/biology/Botanique/Decalobanthus/Decalobanthus.xlsx
+++ b/biology/Botanique/Decalobanthus/Decalobanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Decalobanthus est un genre de plantes de la famille des Convolvulaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 septembre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 septembre 2019) :
 Decalobanthus bimbim (Gagnep.) A. R. Simões &amp; Staples
 Decalobanthus boisianus (Gagnep.) A. R. Simões &amp; Staples
 Decalobanthus borneensis (Merr.) A. R. Simões &amp; Staples
@@ -527,12 +541,12 @@
 Decalobanthus pulchrus (Ooststr.) A. R. Simões &amp; Staples
 Decalobanthus similis (Elmer) A. R. Simões &amp; Staples
 Decalobanthus sumatranus Ooststr.
-Selon GRIN            (9 septembre 2019)[3] :
+Selon GRIN            (9 septembre 2019) :
 Decalobanthus bracteatus (P. S. Bacon) Simões &amp; Staples
 Decalobanthus mammosus (Lour.) Simões &amp; Staples
 Decalobanthus pacificus (Ooststr.) Simões &amp; Staples
 Decalobanthus peltatus (L.) Simões &amp; Staples
-Selon World Checklist of Selected Plant Families (WCSP)  (9 septembre 2019)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (9 septembre 2019) :
 Decalobanthus bimbim (Gagnep.) A.R.Simões &amp; Staples (2017)
 Decalobanthus boisianus (Gagnep.) A.R.Simões &amp; Staples (2017)
 variété Decalobanthus boisianus var. boisianus
@@ -551,7 +565,7 @@
 Decalobanthus pulcher (Ooststr.) A.R.Simões &amp; Staples (2017)
 Decalobanthus similis (Elmer) A.R.Simões &amp; Staples (2017)
 Decalobanthus sumatranus Ooststr. (1936)
-Selon Tropicos                                           (9 septembre 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 septembre 2019) (Attention liste brute contenant possiblement des synonymes) :
 Decalobanthus peltatus (L.) A.R. Simões &amp; Staples
 Decalobanthus pulcher (Ooststr.) A.R. Simões &amp; Staples
 Decalobanthus sumatranus Ooststr.</t>
